--- a/public/downloadfile/线索导入模板.xlsx
+++ b/public/downloadfile/线索导入模板.xlsx
@@ -4,30 +4,17 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="17800"/>
+    <workbookView windowWidth="24345" windowHeight="12465"/>
   </bookViews>
   <sheets>
     <sheet name="sheet-1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="48">
   <si>
     <t>姓名</t>
   </si>
@@ -41,6 +28,18 @@
     <t>行业</t>
   </si>
   <si>
+    <t>邮箱</t>
+  </si>
+  <si>
+    <t>线索来源</t>
+  </si>
+  <si>
+    <t>客户级别</t>
+  </si>
+  <si>
+    <t>联系人</t>
+  </si>
+  <si>
     <t>地址</t>
   </si>
   <si>
@@ -50,9 +49,6 @@
     <t>城市</t>
   </si>
   <si>
-    <t>邮箱</t>
-  </si>
-  <si>
     <t>Name</t>
   </si>
   <si>
@@ -65,6 +61,18 @@
     <t>Industry</t>
   </si>
   <si>
+    <t>Email</t>
+  </si>
+  <si>
+    <t>ClueOrigin</t>
+  </si>
+  <si>
+    <t>CustomerLevel</t>
+  </si>
+  <si>
+    <t>ContactPerson</t>
+  </si>
+  <si>
     <t>Address</t>
   </si>
   <si>
@@ -74,20 +82,95 @@
     <t>City</t>
   </si>
   <si>
-    <t>Email</t>
+    <t>大通互惠集团</t>
+  </si>
+  <si>
+    <t>0592-9633669</t>
+  </si>
+  <si>
+    <t>制造</t>
+  </si>
+  <si>
+    <t>1589969@qq.com</t>
+  </si>
+  <si>
+    <t>电话咨询</t>
+  </si>
+  <si>
+    <t>普通客户</t>
+  </si>
+  <si>
+    <t>李丽</t>
+  </si>
+  <si>
+    <t>长泰县八里路</t>
+  </si>
+  <si>
+    <t>福建</t>
+  </si>
+  <si>
+    <t>厦门</t>
+  </si>
+  <si>
+    <t>亚讯制造</t>
+  </si>
+  <si>
+    <t>0592-32658852</t>
+  </si>
+  <si>
+    <t>317395269@qq.com</t>
+  </si>
+  <si>
+    <t>线下活动</t>
+  </si>
+  <si>
+    <t>VIP客户</t>
+  </si>
+  <si>
+    <t>刘熊</t>
+  </si>
+  <si>
+    <t>软件园二期89号</t>
+  </si>
+  <si>
+    <t>上海松花</t>
+  </si>
+  <si>
+    <t>029-03265894</t>
+  </si>
+  <si>
+    <t>医美</t>
+  </si>
+  <si>
+    <t>25968545@qq.com</t>
+  </si>
+  <si>
+    <t>转介绍</t>
+  </si>
+  <si>
+    <t>重点客户</t>
+  </si>
+  <si>
+    <t>张琳</t>
+  </si>
+  <si>
+    <t>南京路2号</t>
+  </si>
+  <si>
+    <t>上海</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="23">
+  <fonts count="24">
     <font>
       <sz val="11"/>
       <name val="Calibri"/>
@@ -106,33 +189,102 @@
       <charset val="134"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -144,6 +296,27 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -152,106 +325,24 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -272,25 +363,79 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -302,31 +447,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -338,7 +483,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -350,84 +513,30 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -435,24 +544,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -463,6 +554,56 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -485,31 +626,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -529,21 +646,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
@@ -552,166 +654,155 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFill="0" applyBorder="0"/>
-    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="11" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="6" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment shrinkToFit="1"/>
@@ -725,55 +816,61 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment shrinkToFit="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="10" applyNumberFormat="1" applyAlignment="1">
+      <alignment shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="10" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment shrinkToFit="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
-    <cellStyle name="货币" xfId="2" builtinId="4"/>
-    <cellStyle name="百分比" xfId="3" builtinId="5"/>
-    <cellStyle name="千位分隔[0]" xfId="4" builtinId="6"/>
-    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
-    <cellStyle name="超链接" xfId="6" builtinId="8"/>
-    <cellStyle name="已访问的超链接" xfId="7" builtinId="9"/>
-    <cellStyle name="注释" xfId="8" builtinId="10"/>
-    <cellStyle name="警告文本" xfId="9" builtinId="11"/>
-    <cellStyle name="标题" xfId="10" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="11" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="12" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="13" builtinId="17"/>
-    <cellStyle name="标题 3" xfId="14" builtinId="18"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
     <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="输入" xfId="16" builtinId="20"/>
-    <cellStyle name="输出" xfId="17" builtinId="21"/>
-    <cellStyle name="计算" xfId="18" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="19" builtinId="23"/>
-    <cellStyle name="链接单元格" xfId="20" builtinId="24"/>
-    <cellStyle name="汇总" xfId="21" builtinId="25"/>
-    <cellStyle name="好" xfId="22" builtinId="26"/>
-    <cellStyle name="差" xfId="23" builtinId="27"/>
-    <cellStyle name="适中" xfId="24" builtinId="28"/>
-    <cellStyle name="强调文字颜色 1" xfId="25" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="26" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="27" builtinId="31"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="28" builtinId="32"/>
-    <cellStyle name="强调文字颜色 2" xfId="29" builtinId="33"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="30" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="31" builtinId="35"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="32" builtinId="36"/>
-    <cellStyle name="强调文字颜色 3" xfId="33" builtinId="37"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="34" builtinId="38"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="35" builtinId="39"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
-    <cellStyle name="强调文字颜色 4" xfId="37" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="38" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="39" builtinId="43"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="40" builtinId="44"/>
-    <cellStyle name="强调文字颜色 5" xfId="41" builtinId="45"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="42" builtinId="46"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="43" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="44" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="45" builtinId="49"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="46" builtinId="50"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
     <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
     <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
@@ -794,7 +891,7 @@
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="CCE8CF"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -1044,29 +1141,31 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:H3"/>
+  <dimension ref="A1:K5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I8" sqref="I8"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5" outlineLevelRow="2" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="4"/>
   <cols>
-    <col min="1" max="1" width="14" style="1" customWidth="1"/>
-    <col min="2" max="2" width="16.9090909090909" style="1" customWidth="1"/>
-    <col min="3" max="3" width="12.2818181818182" style="1" customWidth="1"/>
-    <col min="4" max="4" width="16.5727272727273" style="1" customWidth="1"/>
-    <col min="5" max="5" width="14.4272727272727" style="1" customWidth="1"/>
-    <col min="6" max="6" width="11.8545454545455" style="1" customWidth="1"/>
-    <col min="7" max="7" width="12.8545454545455" style="1" customWidth="1"/>
-    <col min="8" max="8" width="13.8545454545455" style="1" customWidth="1"/>
-    <col min="9" max="16373" width="9.13636363636364" style="1" customWidth="1"/>
-    <col min="16374" max="16374" width="9.13636363636364" style="1"/>
-    <col min="16375" max="16376" width="9.13636363636364" style="1" customWidth="1"/>
-    <col min="16377" max="16384" width="9" style="1"/>
+    <col min="1" max="1" width="24.4285714285714" style="1" customWidth="1"/>
+    <col min="2" max="2" width="21.2857142857143" style="1" customWidth="1"/>
+    <col min="3" max="3" width="12.2857142857143" style="1" customWidth="1"/>
+    <col min="4" max="4" width="16.5714285714286" style="1" customWidth="1"/>
+    <col min="5" max="5" width="20.2857142857143" style="1" customWidth="1"/>
+    <col min="6" max="6" width="18.4285714285714" style="1" customWidth="1"/>
+    <col min="7" max="8" width="17.8571428571429" style="1" customWidth="1"/>
+    <col min="9" max="9" width="26.1428571428571" style="1" customWidth="1"/>
+    <col min="10" max="10" width="11.8571428571429" style="1" customWidth="1"/>
+    <col min="11" max="11" width="12.8571428571429" style="1" customWidth="1"/>
+    <col min="12" max="16369" width="9.13333333333333" style="1" customWidth="1"/>
+    <col min="16370" max="16370" width="9.13333333333333" style="1"/>
+    <col min="16371" max="16372" width="9.13333333333333" style="1" customWidth="1"/>
+    <col min="16373" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15" customHeight="1" spans="1:8">
+    <row r="1" customHeight="1" spans="1:11">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1091,40 +1190,162 @@
       <c r="H1" s="2" t="s">
         <v>7</v>
       </c>
+      <c r="I1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>10</v>
+      </c>
     </row>
-    <row r="2" ht="15" customHeight="1" spans="1:8">
+    <row r="2" customHeight="1" spans="1:11">
       <c r="A2" s="2" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>15</v>
+        <v>18</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>21</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
-      <c r="A3" s="3"/>
-      <c r="E3" s="4"/>
-      <c r="F3" s="4"/>
-      <c r="G3" s="4"/>
+    <row r="3" spans="1:11">
+      <c r="A3" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B3" s="1">
+        <v>15896968585</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="H3" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="I3" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="J3" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="K3" s="4" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11">
+      <c r="A4" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B4" s="1">
+        <v>13598552222</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="E4" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="H4" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="I4" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="J4" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="K4" s="4" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11">
+      <c r="A5" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="B5" s="1">
+        <v>13956563696</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="G5" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="H5" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="I5" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="J5" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="K5" s="4" t="s">
+        <v>47</v>
+      </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="E3" r:id="rId1" display="1589969@qq.com"/>
+    <hyperlink ref="E4" r:id="rId2" display="317395269@qq.com" tooltip="mailto:317395269@qq.com"/>
+    <hyperlink ref="E5" r:id="rId3" display="25968545@qq.com"/>
+  </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>
